--- a/POS/public/template_user.xlsx
+++ b/POS/public/template_user.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\PWL_2025\Minggu8\PWL_POS\public\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\PWL_2025\POS\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7CD5A58-D95D-4522-8221-8F6AF16C038F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{119EF2F6-83A5-4E25-81ED-30FCCDFB5C87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4710" yWindow="4185" windowWidth="21600" windowHeight="11295" xr2:uid="{4F64AB59-BDF0-42EB-AFDF-87628486FB08}"/>
+    <workbookView xWindow="2595" yWindow="2595" windowWidth="21600" windowHeight="11295" xr2:uid="{4F64AB59-BDF0-42EB-AFDF-87628486FB08}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>username</t>
   </si>
@@ -36,19 +36,13 @@
     <t>password</t>
   </si>
   <si>
-    <t>Customer 1</t>
-  </si>
-  <si>
-    <t>Customer 2</t>
-  </si>
-  <si>
     <t>level_id</t>
   </si>
   <si>
-    <t>customer1</t>
-  </si>
-  <si>
-    <t>customer2</t>
+    <t>member1</t>
+  </si>
+  <si>
+    <t>Khrisna</t>
   </si>
 </sst>
 </file>
@@ -400,10 +394,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{227AFCBD-F4F1-41CE-8635-4FD7DD2829E1}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -416,7 +410,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -430,29 +424,15 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" t="s">
-        <v>3</v>
-      </c>
       <c r="D2">
-        <v>12345</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>5</v>
-      </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3">
         <v>12345</v>
       </c>
     </row>
